--- a/CLAVES GEOLÓGICA.xlsx
+++ b/CLAVES GEOLÓGICA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLAVES SIP-DGAE\Análisis de claves\CLAVES-FORMATOS FINALES\FORMATOS FINALES CORREGIDOS COMPLETOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Servicio Social\FORMATOS FINALES CORREGIDOS COMPLETOS\PlanesEstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Apoyo_Academico" sheetId="4" r:id="rId2"/>
     <sheet name="Formacion_Complementaria" sheetId="5" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Apoyo_Academico!$A$1:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Docencia_Directa!$A$1:$Q$73</definedName>
@@ -29,12 +26,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Formacion_Complementaria!$1:$1</definedName>
     <definedName name="total_asignaturas">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="133">
   <si>
     <t>CLAVE DGAE</t>
   </si>
@@ -407,13 +404,40 @@
   <si>
     <t>1066</t>
   </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE FÍSICA Y QUÍMICA</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE CIENCIAS APLICADAS</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE MATEMÁTICAS</t>
+  </si>
+  <si>
+    <t>ASIGNATURAS SOCIOHUMANÍSTICAS</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN COMPUTACIÓN</t>
+  </si>
+  <si>
+    <t>INGENIERÍA GEOLÓGICA</t>
+  </si>
+  <si>
+    <t>INGENIERÍA GEOFÍSICA</t>
+  </si>
+  <si>
+    <t>INGENIERÍA PETROLERA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -473,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -698,12 +722,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -751,7 +786,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -777,7 +812,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -787,10 +822,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,6 +840,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -822,21 +869,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="APOYO ACADEMICO"/>
-      <sheetName val="FORM COMP"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1126,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:IV75"/>
+    <sheetView tabSelected="1" topLeftCell="I54" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,16 +1172,19 @@
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.42578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1201,8 +1236,11 @@
       <c r="Q1" s="27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39">
         <v>113</v>
       </c>
@@ -1254,8 +1292,11 @@
       <c r="Q2" s="44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
         <v>113</v>
       </c>
@@ -1307,8 +1348,11 @@
       <c r="Q3" s="44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>113</v>
       </c>
@@ -1360,8 +1404,11 @@
       <c r="Q4" s="44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>113</v>
       </c>
@@ -1413,8 +1460,11 @@
       <c r="Q5" s="44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>113</v>
       </c>
@@ -1466,8 +1516,11 @@
       <c r="Q6" s="44" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>113</v>
       </c>
@@ -1519,8 +1572,11 @@
       <c r="Q7" s="44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>113</v>
       </c>
@@ -1572,8 +1628,11 @@
       <c r="Q8" s="44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>113</v>
       </c>
@@ -1625,8 +1684,11 @@
       <c r="Q9" s="44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
         <v>113</v>
       </c>
@@ -1678,8 +1740,11 @@
       <c r="Q10" s="44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>113</v>
       </c>
@@ -1731,8 +1796,11 @@
       <c r="Q11" s="42" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>113</v>
       </c>
@@ -1784,8 +1852,11 @@
       <c r="Q12" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>113</v>
       </c>
@@ -1837,8 +1908,11 @@
       <c r="Q13" s="44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>113</v>
       </c>
@@ -1890,8 +1964,11 @@
       <c r="Q14" s="44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>113</v>
       </c>
@@ -1943,8 +2020,11 @@
       <c r="Q15" s="44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>113</v>
       </c>
@@ -1996,8 +2076,11 @@
       <c r="Q16" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>113</v>
       </c>
@@ -2049,8 +2132,11 @@
       <c r="Q17" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>113</v>
       </c>
@@ -2102,8 +2188,11 @@
       <c r="Q18" s="44" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>113</v>
       </c>
@@ -2155,8 +2244,11 @@
       <c r="Q19" s="44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>113</v>
       </c>
@@ -2208,8 +2300,11 @@
       <c r="Q20" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>113</v>
       </c>
@@ -2261,8 +2356,11 @@
       <c r="Q21" s="44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>113</v>
       </c>
@@ -2314,8 +2412,11 @@
       <c r="Q22" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>113</v>
       </c>
@@ -2367,8 +2468,11 @@
       <c r="Q23" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>113</v>
       </c>
@@ -2420,8 +2524,11 @@
       <c r="Q24" s="44" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>113</v>
       </c>
@@ -2473,8 +2580,11 @@
       <c r="Q25" s="44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>113</v>
       </c>
@@ -2526,8 +2636,11 @@
       <c r="Q26" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>113</v>
       </c>
@@ -2579,8 +2692,11 @@
       <c r="Q27" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>113</v>
       </c>
@@ -2632,8 +2748,11 @@
       <c r="Q28" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>113</v>
       </c>
@@ -2685,8 +2804,11 @@
       <c r="Q29" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>113</v>
       </c>
@@ -2738,8 +2860,11 @@
       <c r="Q30" s="44" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>113</v>
       </c>
@@ -2791,8 +2916,11 @@
       <c r="Q31" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>113</v>
       </c>
@@ -2844,8 +2972,11 @@
       <c r="Q32" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>113</v>
       </c>
@@ -2897,8 +3028,11 @@
       <c r="Q33" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R33" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>113</v>
       </c>
@@ -2950,8 +3084,11 @@
       <c r="Q34" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>113</v>
       </c>
@@ -3003,8 +3140,11 @@
       <c r="Q35" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>113</v>
       </c>
@@ -3056,8 +3196,11 @@
       <c r="Q36" s="44" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>113</v>
       </c>
@@ -3109,8 +3252,11 @@
       <c r="Q37" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>113</v>
       </c>
@@ -3162,8 +3308,11 @@
       <c r="Q38" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>113</v>
       </c>
@@ -3215,8 +3364,11 @@
       <c r="Q39" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>113</v>
       </c>
@@ -3268,8 +3420,11 @@
       <c r="Q40" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R40" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>113</v>
       </c>
@@ -3321,8 +3476,11 @@
       <c r="Q41" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R41" s="50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>113</v>
       </c>
@@ -3374,8 +3532,11 @@
       <c r="Q42" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <v>113</v>
       </c>
@@ -3427,8 +3588,11 @@
       <c r="Q43" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R43" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <v>113</v>
       </c>
@@ -3480,8 +3644,11 @@
       <c r="Q44" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R44" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>113</v>
       </c>
@@ -3533,8 +3700,11 @@
       <c r="Q45" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R45" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <v>113</v>
       </c>
@@ -3586,8 +3756,11 @@
       <c r="Q46" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R46" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
         <v>113</v>
       </c>
@@ -3639,8 +3812,11 @@
       <c r="Q47" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R47" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <v>113</v>
       </c>
@@ -3692,8 +3868,11 @@
       <c r="Q48" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R48" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <v>113</v>
       </c>
@@ -3745,8 +3924,11 @@
       <c r="Q49" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R49" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <v>113</v>
       </c>
@@ -3798,8 +3980,11 @@
       <c r="Q50" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R50" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
         <v>113</v>
       </c>
@@ -3851,8 +4036,11 @@
       <c r="Q51" s="44" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R51" s="51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <v>113</v>
       </c>
@@ -3904,8 +4092,11 @@
       <c r="Q52" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R52" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
         <v>113</v>
       </c>
@@ -3957,8 +4148,11 @@
       <c r="Q53" s="44" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R53" s="51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <v>113</v>
       </c>
@@ -4010,8 +4204,11 @@
       <c r="Q54" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R54" s="51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <v>113</v>
       </c>
@@ -4063,8 +4260,11 @@
       <c r="Q55" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R55" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
         <v>113</v>
       </c>
@@ -4116,8 +4316,11 @@
       <c r="Q56" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R56" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <v>113</v>
       </c>
@@ -4169,8 +4372,11 @@
       <c r="Q57" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R57" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <v>113</v>
       </c>
@@ -4222,8 +4428,11 @@
       <c r="Q58" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R58" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <v>113</v>
       </c>
@@ -4275,8 +4484,11 @@
       <c r="Q59" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R59" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
         <v>113</v>
       </c>
@@ -4328,8 +4540,11 @@
       <c r="Q60" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R60" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <v>113</v>
       </c>
@@ -4381,8 +4596,11 @@
       <c r="Q61" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R61" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="39">
         <v>113</v>
       </c>
@@ -4434,8 +4652,11 @@
       <c r="Q62" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R62" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="39">
         <v>113</v>
       </c>
@@ -4487,8 +4708,11 @@
       <c r="Q63" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R63" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <v>113</v>
       </c>
@@ -4540,8 +4764,11 @@
       <c r="Q64" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R64" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <v>113</v>
       </c>
@@ -4593,8 +4820,11 @@
       <c r="Q65" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R65" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <v>113</v>
       </c>
@@ -4646,8 +4876,11 @@
       <c r="Q66" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R66" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <v>113</v>
       </c>
@@ -4699,8 +4932,11 @@
       <c r="Q67" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R67" s="51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
         <v>113</v>
       </c>
@@ -4752,8 +4988,11 @@
       <c r="Q68" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R68" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="39">
         <v>113</v>
       </c>
@@ -4805,8 +5044,11 @@
       <c r="Q69" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R69" s="51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <v>113</v>
       </c>
@@ -4858,8 +5100,11 @@
       <c r="Q70" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R70" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <v>113</v>
       </c>
@@ -4911,8 +5156,11 @@
       <c r="Q71" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R71" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
         <v>113</v>
       </c>
@@ -4964,8 +5212,11 @@
       <c r="Q72" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R72" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <v>113</v>
       </c>
@@ -5017,15 +5268,17 @@
       <c r="Q73" s="42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R73" s="51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q74" s="47"/>
     </row>
-    <row r="75" spans="1:17" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q75" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q73"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
